--- a/Tasks to do.xlsx
+++ b/Tasks to do.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Feature</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>Add support for "Shiny"</t>
+  </si>
+  <si>
+    <t>Bug - Howl - On self didn't work</t>
   </si>
 </sst>
 </file>
@@ -452,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,6 +735,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C25">
     <sortCondition descending="1" ref="B9"/>

--- a/Tasks to do.xlsx
+++ b/Tasks to do.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Pokemon Table Top\Git Project\PokemonTableTop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Pokemon-Table-Top\Git Project\PokemonTableTop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>Feature</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Bug - Howl - On self didn't work</t>
+  </si>
+  <si>
+    <t>Added: AttackTurnNumber and EndAttack</t>
   </si>
 </sst>
 </file>
@@ -458,7 +461,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,6 +507,12 @@
       <c r="B3">
         <v>5</v>
       </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -511,6 +520,9 @@
       </c>
       <c r="B4">
         <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">

--- a/Tasks to do.xlsx
+++ b/Tasks to do.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>Feature</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>Added: AttackTurnNumber and EndAttack</t>
+  </si>
+  <si>
+    <t>AC check modifiers - Add on AC check stage</t>
   </si>
 </sst>
 </file>
@@ -458,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,6 +559,9 @@
       <c r="B8">
         <v>5</v>
       </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -642,7 +648,7 @@
         <v>15</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -650,7 +656,7 @@
         <v>16</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -752,6 +758,14 @@
         <v>37</v>
       </c>
       <c r="B32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33">
         <v>4</v>
       </c>
     </row>
